--- a/biology/Histoire de la zoologie et de la botanique/Karl_Gottfried_Semper/Karl_Gottfried_Semper.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_Gottfried_Semper/Karl_Gottfried_Semper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl (ou Carl) Gottfried Semper est un malacologiste et un zoologiste prussien, né le 6 juillet 1832 à Altona et mort le 29 mai 1893.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la zoologie à Wurtzbourg où il obtient un titre de docteur avec une thèse sur les mollusques en 1856. Il commence à enseigner dans cette même ville en 1866 puis devient, trois ans plus tard, professeur de l’université. De 1858 à 1865, il voyage dans les Philippines et l’archipel de Palau. Sa mauvaise santé, à la suite d'une attaque en 1897, l’oblige à prendre sa retraite en 1892.
 Ses deux frères sont également zoologistes : Otto Semper (de) (1830-1907) est malacologiste et Georg Semper (1837-1909) est entomologiste. Les trois frères travaillent pour le muséum Godeffroy de Hambourg.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Reisen im Archipel der Philippinen (5 vol. of 10, 1868-1916)
 Palau-Inseln im Stillen Ocean (1873)
